--- a/src/main/resources/assets/_test/docs/xlsx/그 외 참고.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/그 외 참고.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>네이버 OCR</t>
   </si>
@@ -55,12 +55,19 @@
   </si>
   <si>
     <t>TzK5/8gFpMXmTKH5aYS6Uw9j2UwBGwGeju46fsJDwNE=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vxg7xjhMOVsLDmPU+Wfp5g==</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AES_IV</t>
-  </si>
-  <si>
-    <t>vxg7xjhMOVsLDmPU+Wfp5g==</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00630</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,8 +660,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,72 +991,75 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>630</v>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
